--- a/Group_I_Max_Flow_LP.xlsx
+++ b/Group_I_Max_Flow_LP.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1" xr2:uid="{5CFD9FDA-BA47-40DB-8F12-950D545AC996}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{5CFD9FDA-BA47-40DB-8F12-950D545AC996}"/>
   </bookViews>
   <sheets>
     <sheet name="Max Flow LP" sheetId="1" r:id="rId1"/>
-    <sheet name="Dual Max Flow LP" sheetId="2" r:id="rId2"/>
+    <sheet name="Max Flow Sensitivity Report" sheetId="3" r:id="rId2"/>
+    <sheet name="Dual Max Flow LP" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Dual Max Flow LP'!$G$3:$G$14,'Dual Max Flow LP'!$K$3:$K$9</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Dual Max Flow LP'!$G$3:$G$14,'Dual Max Flow LP'!$K$3:$K$9</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Max Flow LP'!$D$5:$D$16</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Max Flow LP'!$D$10</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$19</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$19</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Max Flow LP'!$D$20</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$20</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$20</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Max Flow LP'!$D$21</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$21</definedName>
+    <definedName name="solver_lhs12" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$21</definedName>
     <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Max Flow LP'!$D$22</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$9</definedName>
     <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Max Flow LP'!$D$5</definedName>
     <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Max Flow LP'!$D$6</definedName>
     <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Max Flow LP'!$D$7</definedName>
@@ -44,53 +45,53 @@
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">'Max Flow LP'!$D$9</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">'Max Flow LP'!$D$9</definedName>
     <definedName name="solver_lhs19" localSheetId="0" hidden="1">'Max Flow LP'!$D$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$11</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Max Flow LP'!$D$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$12</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Max Flow LP'!$D$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$13</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Max Flow LP'!$D$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$14</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Max Flow LP'!$D$14</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$15</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Max Flow LP'!$D$15</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$16</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Max Flow LP'!$D$16</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$17</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$17</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Max Flow LP'!$D$18</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$18</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$18</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Max Flow LP'!$D$19</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">13</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">17</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Dual Max Flow LP'!$C$3</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Dual Max Flow LP'!$C$3</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Max Flow LP'!$C$2</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel11" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel12" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel13" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel15" localSheetId="0" hidden="1">1</definedName>
@@ -98,31 +99,31 @@
     <definedName name="solver_rel17" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel19" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$10</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Max Flow LP'!$C$10</definedName>
-    <definedName name="solver_rhs10" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$19</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$19</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Max Flow LP'!$C$20</definedName>
-    <definedName name="solver_rhs11" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$20</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$20</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Max Flow LP'!$C$21</definedName>
-    <definedName name="solver_rhs12" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$21</definedName>
+    <definedName name="solver_rhs12" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$21</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Max Flow LP'!$C$22</definedName>
-    <definedName name="solver_rhs13" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$9</definedName>
+    <definedName name="solver_rhs13" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$9</definedName>
     <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Max Flow LP'!$C$5</definedName>
     <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Max Flow LP'!$C$6</definedName>
     <definedName name="solver_rhs15" localSheetId="0" hidden="1">'Max Flow LP'!$C$7</definedName>
@@ -130,41 +131,41 @@
     <definedName name="solver_rhs17" localSheetId="0" hidden="1">'Max Flow LP'!$C$9</definedName>
     <definedName name="solver_rhs18" localSheetId="0" hidden="1">'Max Flow LP'!$C$9</definedName>
     <definedName name="solver_rhs19" localSheetId="0" hidden="1">'Max Flow LP'!$C$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$11</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Max Flow LP'!$C$11</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$12</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Max Flow LP'!$C$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$13</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Max Flow LP'!$C$13</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$14</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Max Flow LP'!$C$14</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$15</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Max Flow LP'!$C$15</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$16</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$16</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Max Flow LP'!$C$16</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$17</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$17</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Max Flow LP'!$C$18</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'Dual Max Flow LP'!$D$18</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">'Dual Max Flow LP'!$D$18</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Max Flow LP'!$C$19</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -177,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>Maximize</t>
   </si>
@@ -318,13 +319,172 @@
   </si>
   <si>
     <t>Xt</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [Group_I_Max_Flow_LP.xlsx]Max Flow LP</t>
+  </si>
+  <si>
+    <t>Report Created: 05/12/2017 13:08:54</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>$D$5</t>
+  </si>
+  <si>
+    <t>Xsv Values</t>
+  </si>
+  <si>
+    <t>$D$6</t>
+  </si>
+  <si>
+    <t>Xsu Values</t>
+  </si>
+  <si>
+    <t>$D$7</t>
+  </si>
+  <si>
+    <t>Xsw Values</t>
+  </si>
+  <si>
+    <t>$D$8</t>
+  </si>
+  <si>
+    <t>Xux Values</t>
+  </si>
+  <si>
+    <t>$D$9</t>
+  </si>
+  <si>
+    <t>Xvu Values</t>
+  </si>
+  <si>
+    <t>$D$10</t>
+  </si>
+  <si>
+    <t>Xvw Values</t>
+  </si>
+  <si>
+    <t>$D$11</t>
+  </si>
+  <si>
+    <t>Xvx Values</t>
+  </si>
+  <si>
+    <t>$D$12</t>
+  </si>
+  <si>
+    <t>Xvy Values</t>
+  </si>
+  <si>
+    <t>$D$13</t>
+  </si>
+  <si>
+    <t>Xxt Values</t>
+  </si>
+  <si>
+    <t>$D$14</t>
+  </si>
+  <si>
+    <t>Xyt Values</t>
+  </si>
+  <si>
+    <t>$D$15</t>
+  </si>
+  <si>
+    <t>Xwy Values</t>
+  </si>
+  <si>
+    <t>$D$16</t>
+  </si>
+  <si>
+    <t>Xyx Values</t>
+  </si>
+  <si>
+    <t>$D$18</t>
+  </si>
+  <si>
+    <t>NodeU Values</t>
+  </si>
+  <si>
+    <t>$D$19</t>
+  </si>
+  <si>
+    <t>NodeV Values</t>
+  </si>
+  <si>
+    <t>$D$20</t>
+  </si>
+  <si>
+    <t>NodeW Values</t>
+  </si>
+  <si>
+    <t>$D$21</t>
+  </si>
+  <si>
+    <t>NodeX Values</t>
+  </si>
+  <si>
+    <t>$D$22</t>
+  </si>
+  <si>
+    <t>NodeY Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +507,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +536,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -384,12 +566,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -401,6 +621,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -718,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D273D-7268-458C-82CC-85158D5B4A73}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B4:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,11 +1207,536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A1A4E7-4095-43F8-A53F-0050C6036C0A}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>6</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>6</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49666C61-4A0E-4D1D-BD89-1BD80B3DE5D3}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
